--- a/data/case1/20/V2_13.xlsx
+++ b/data/case1/20/V2_13.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999664045502</v>
+        <v>0.99999999510171489</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99824409591442542</v>
+        <v>0.99819163496484609</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.99459157991705771</v>
+        <v>0.99262845713997794</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.99869893585123237</v>
+        <v>0.9943847472776175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.98969617778878893</v>
+        <v>0.98294580930062359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.96987628540471515</v>
+        <v>0.95646547170402674</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.96818017857093019</v>
+        <v>0.95346312494462571</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.96411813332988561</v>
+        <v>0.94721208802886059</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.9621943616950972</v>
+        <v>0.94161987292252425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.96120094012705859</v>
+        <v>0.93693778353721724</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.96098296643011638</v>
+        <v>0.93612171086588447</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.96082517497874231</v>
+        <v>0.93482551354025234</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.95064164091445147</v>
+        <v>0.93248333530603911</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.94703204826151288</v>
+        <v>0.93111280111730554</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.94491211121006868</v>
+        <v>0.93118288385331449</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.94293595357838322</v>
+        <v>0.9318524981496169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.93922822660708738</v>
+        <v>0.92814472053143815</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.93811930970656365</v>
+        <v>0.92703580788949935</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.9965517866128426</v>
+        <v>0.99712131922179914</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.98943466189401086</v>
+        <v>0.98968991609489687</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.98803615495056829</v>
+        <v>0.98845854029273728</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.98677164867581069</v>
+        <v>0.9871940339171803</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.98686754919214348</v>
+        <v>0.9855941948842375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.97310771234813109</v>
+        <v>0.97257386728184148</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.96594715763611161</v>
+        <v>0.96611695906084827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.96727399322187479</v>
+        <v>0.9532787167137069</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.96389432136832298</v>
+        <v>0.94908408553291967</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.95086939876553567</v>
+        <v>0.93154576627129004</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.94184783295987418</v>
+        <v>0.91917105001109056</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.93527882331446899</v>
+        <v>0.9136947719951799</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.92762594041905433</v>
+        <v>0.90993090687575473</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.92594661375510812</v>
+        <v>0.90825158798147521</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.92542659173999997</v>
+        <v>0.90773157254990977</v>
       </c>
     </row>
   </sheetData>
